--- a/Assets/GameMain/DataTables/NumRecGuideInfo.xlsx
+++ b/Assets/GameMain/DataTables/NumRecGuideInfo.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="33">
   <si>
     <t>#</t>
   </si>
@@ -92,6 +92,12 @@
   </si>
   <si>
     <t>UIDescripte</t>
+  </si>
+  <si>
+    <t>打开小地图</t>
+  </si>
+  <si>
+    <t>OpenMap</t>
   </si>
   <si>
     <t>移动指导</t>
@@ -114,10 +120,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -136,7 +142,136 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -149,135 +284,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -288,37 +294,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -330,145 +474,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -479,65 +485,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -574,8 +521,67 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -585,10 +591,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -597,19 +603,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -618,112 +624,112 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1066,10 +1072,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.75" defaultRowHeight="25.15" customHeight="1" outlineLevelCol="7"/>
@@ -1268,18 +1274,16 @@
       <c r="D9" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E9" s="4">
         <v>1</v>
       </c>
       <c r="F9" s="5" t="s">
         <v>27</v>
       </c>
       <c r="G9" s="5">
-        <v>5</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>28</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="H9" s="4"/>
     </row>
     <row r="10" s="1" customFormat="1" ht="45" customHeight="1" spans="1:8">
       <c r="A10" s="5"/>
@@ -1290,18 +1294,42 @@
         <v>6</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E10" s="5">
         <v>1</v>
       </c>
       <c r="F10" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G10" s="5">
+        <v>5</v>
+      </c>
+      <c r="H10" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="G10" s="5">
+    </row>
+    <row r="11" s="1" customFormat="1" ht="45" customHeight="1" spans="1:8">
+      <c r="A11" s="5"/>
+      <c r="B11" s="5">
+        <v>7</v>
+      </c>
+      <c r="C11" s="5">
+        <v>7</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11" s="5">
+        <v>1</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G11" s="5">
         <v>10</v>
       </c>
-      <c r="H10" s="4"/>
+      <c r="H11" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/GameMain/DataTables/NumRecGuideInfo.xlsx
+++ b/Assets/GameMain/DataTables/NumRecGuideInfo.xlsx
@@ -122,8 +122,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -142,19 +142,35 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="等线"/>
@@ -162,6 +178,38 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="等线"/>
@@ -171,22 +219,23 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -216,72 +265,23 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -294,187 +294,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -488,17 +488,52 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -522,42 +557,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -570,31 +585,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -603,133 +603,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1075,7 +1075,7 @@
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.75" defaultRowHeight="25.15" customHeight="1" outlineLevelCol="7"/>
@@ -1327,7 +1327,7 @@
         <v>32</v>
       </c>
       <c r="G11" s="5">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H11" s="4"/>
     </row>
